--- a/08-10-2019-16.17.xlsx
+++ b/08-10-2019-16.17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\dataKendaraan-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901C90C5-075E-4CB2-B289-1FFD5201D813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186CFAC-F5FE-4C2A-A2C1-A7D7E32C73BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -465,8 +467,12 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -483,8 +489,12 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -501,8 +511,12 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>147</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
